--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H2">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I2">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J2">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N2">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O2">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P2">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q2">
-        <v>799.276184705108</v>
+        <v>8.675065734688888</v>
       </c>
       <c r="R2">
-        <v>7193.485662345972</v>
+        <v>78.07559161219999</v>
       </c>
       <c r="S2">
-        <v>0.1624183622026877</v>
+        <v>0.004773139679934955</v>
       </c>
       <c r="T2">
-        <v>0.1624183622026877</v>
+        <v>0.004773139679934954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H3">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I3">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J3">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q3">
-        <v>658.9233636167698</v>
+        <v>235.4972931219999</v>
       </c>
       <c r="R3">
-        <v>5930.31027255093</v>
+        <v>2119.475638098</v>
       </c>
       <c r="S3">
-        <v>0.1338977134358222</v>
+        <v>0.1295738278758072</v>
       </c>
       <c r="T3">
-        <v>0.1338977134358222</v>
+        <v>0.1295738278758072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H4">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I4">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J4">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N4">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O4">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P4">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q4">
-        <v>587.4155636239199</v>
+        <v>174.2150354842444</v>
       </c>
       <c r="R4">
-        <v>5286.740072615279</v>
+        <v>1567.9353193582</v>
       </c>
       <c r="S4">
-        <v>0.1193668416523209</v>
+        <v>0.09585549252797045</v>
       </c>
       <c r="T4">
-        <v>0.1193668416523209</v>
+        <v>0.09585549252797042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>61.488057</v>
       </c>
       <c r="I5">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J5">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N5">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O5">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P5">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q5">
-        <v>655.0588067335987</v>
+        <v>19.89322424920367</v>
       </c>
       <c r="R5">
-        <v>5895.529260602388</v>
+        <v>179.039018242833</v>
       </c>
       <c r="S5">
-        <v>0.1331124091672666</v>
+        <v>0.01094552374929336</v>
       </c>
       <c r="T5">
-        <v>0.1331124091672665</v>
+        <v>0.01094552374929336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>61.488057</v>
       </c>
       <c r="I6">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J6">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q6">
         <v>540.0305433333299</v>
@@ -818,10 +818,10 @@
         <v>4860.27488999997</v>
       </c>
       <c r="S6">
-        <v>0.109737882932153</v>
+        <v>0.2971321824633519</v>
       </c>
       <c r="T6">
-        <v>0.109737882932153</v>
+        <v>0.2971321824633518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>61.488057</v>
       </c>
       <c r="I7">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J7">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N7">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O7">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P7">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q7">
-        <v>481.4252514056799</v>
+        <v>399.5011535892803</v>
       </c>
       <c r="R7">
-        <v>4332.827262651119</v>
+        <v>3595.510382303522</v>
       </c>
       <c r="S7">
-        <v>0.09782888862774848</v>
+        <v>0.2198109924114792</v>
       </c>
       <c r="T7">
-        <v>0.09782888862774847</v>
+        <v>0.2198109924114792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H8">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I8">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J8">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N8">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O8">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P8">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q8">
-        <v>468.4675858582036</v>
+        <v>9.116214914683331</v>
       </c>
       <c r="R8">
-        <v>4216.208272723832</v>
+        <v>82.04593423214999</v>
       </c>
       <c r="S8">
-        <v>0.09519580277274108</v>
+        <v>0.005015865985440899</v>
       </c>
       <c r="T8">
-        <v>0.09519580277274108</v>
+        <v>0.005015865985440899</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H9">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I9">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J9">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q9">
-        <v>386.20472288062</v>
+        <v>247.4729300714999</v>
       </c>
       <c r="R9">
-        <v>3475.84250592558</v>
+        <v>2227.256370643499</v>
       </c>
       <c r="S9">
-        <v>0.07847942897029535</v>
+        <v>0.1361629869282376</v>
       </c>
       <c r="T9">
-        <v>0.07847942897029535</v>
+        <v>0.1361629869282375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H10">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I10">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J10">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N10">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O10">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P10">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q10">
-        <v>344.2929443568534</v>
+        <v>183.0743136035166</v>
       </c>
       <c r="R10">
-        <v>3098.63649921168</v>
+        <v>1647.66882243165</v>
       </c>
       <c r="S10">
-        <v>0.06996267023896459</v>
+        <v>0.1007299883784845</v>
       </c>
       <c r="T10">
-        <v>0.06996267023896459</v>
+        <v>0.1007299883784845</v>
       </c>
     </row>
   </sheetData>
